--- a/src/Excel/entregable3/CuentaPagarDolares.xlsx
+++ b/src/Excel/entregable3/CuentaPagarDolares.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E75C5F4-3673-4C9F-8AF2-2DE03224FA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CAA4EC-A572-489E-BA84-FD8F3C1690CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CuentaPagarDolares" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -42,23 +42,37 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>14 abr. 2023, 11:00:25</t>
-  </si>
-  <si>
-    <t>14 abr. 2023, 11:03:30</t>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>1010830555</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Transaccion</t>
+  </si>
+  <si>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>TT232263CM3Y 14:2</t>
+  </si>
+  <si>
+    <t>14 ago. 2023, 14:26:44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,45 +399,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
